--- a/Code/Results/Cases/Case_5_220/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_220/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.09918780225172</v>
+        <v>25.00614441910898</v>
       </c>
       <c r="C2">
-        <v>16.67232712170286</v>
+        <v>12.30731053561313</v>
       </c>
       <c r="D2">
-        <v>2.428047114336427</v>
+        <v>4.060659819108497</v>
       </c>
       <c r="E2">
-        <v>5.574136560256688</v>
+        <v>9.760591166727075</v>
       </c>
       <c r="F2">
-        <v>44.28186480403224</v>
+        <v>53.8300619044932</v>
       </c>
       <c r="I2">
-        <v>28.92122407905282</v>
+        <v>37.5689805815659</v>
       </c>
       <c r="J2">
-        <v>5.721624928604719</v>
+        <v>9.653495557233981</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.981942807984395</v>
+        <v>12.67856184045885</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.62811943798595</v>
+        <v>24.74140692267896</v>
       </c>
       <c r="C3">
-        <v>15.46636353148347</v>
+        <v>11.95175431647375</v>
       </c>
       <c r="D3">
-        <v>2.294642333210549</v>
+        <v>4.034675934778845</v>
       </c>
       <c r="E3">
-        <v>5.584229686087537</v>
+        <v>9.769613835736275</v>
       </c>
       <c r="F3">
-        <v>42.92196131500742</v>
+        <v>53.70344327964792</v>
       </c>
       <c r="I3">
-        <v>28.37449790402193</v>
+        <v>37.55785225907291</v>
       </c>
       <c r="J3">
-        <v>5.769323818297605</v>
+        <v>9.670375217775872</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.804248612819317</v>
+        <v>12.68597716097457</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.69520152138023</v>
+        <v>24.58469654994497</v>
       </c>
       <c r="C4">
-        <v>14.69099068347043</v>
+        <v>11.73228476847314</v>
       </c>
       <c r="D4">
-        <v>2.211433684890934</v>
+        <v>4.018360675747212</v>
       </c>
       <c r="E4">
-        <v>5.591267667234733</v>
+        <v>9.775533184945582</v>
       </c>
       <c r="F4">
-        <v>42.1109874360853</v>
+        <v>53.63809740843654</v>
       </c>
       <c r="I4">
-        <v>28.06073559280035</v>
+        <v>37.5585900983377</v>
       </c>
       <c r="J4">
-        <v>5.799531135506809</v>
+        <v>9.68131401363596</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.69865778684997</v>
+        <v>12.69273076665195</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.30779711234434</v>
+        <v>24.52237692755122</v>
       </c>
       <c r="C5">
-        <v>14.36610426747673</v>
+        <v>11.64271556975237</v>
       </c>
       <c r="D5">
-        <v>2.177178190825094</v>
+        <v>4.01162133703517</v>
       </c>
       <c r="E5">
-        <v>5.594339712931499</v>
+        <v>9.778040985024994</v>
       </c>
       <c r="F5">
-        <v>41.78659556275237</v>
+        <v>53.61459065031933</v>
       </c>
       <c r="I5">
-        <v>27.9382052792909</v>
+        <v>37.56078876182038</v>
       </c>
       <c r="J5">
-        <v>5.812078784393011</v>
+        <v>9.685916554616913</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.656525504820729</v>
+        <v>12.69603650654158</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.24304058080048</v>
+        <v>24.51212394373675</v>
       </c>
       <c r="C6">
-        <v>14.31161504072812</v>
+        <v>11.62783935030672</v>
       </c>
       <c r="D6">
-        <v>2.171468614191239</v>
+        <v>4.010496795684248</v>
       </c>
       <c r="E6">
-        <v>5.594861946493477</v>
+        <v>9.778463184749697</v>
       </c>
       <c r="F6">
-        <v>41.73309988339361</v>
+        <v>53.61087601526222</v>
       </c>
       <c r="I6">
-        <v>27.91817575458683</v>
+        <v>37.56126829473169</v>
       </c>
       <c r="J6">
-        <v>5.814176865792142</v>
+        <v>9.686689566000677</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.649584048042701</v>
+        <v>12.69661886155771</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.69000576452646</v>
+        <v>24.58384975218972</v>
       </c>
       <c r="C7">
-        <v>14.68664541726483</v>
+        <v>11.73107713427289</v>
       </c>
       <c r="D7">
-        <v>2.210973133023775</v>
+        <v>4.018270153979175</v>
       </c>
       <c r="E7">
-        <v>5.591308280993217</v>
+        <v>9.775566618563666</v>
       </c>
       <c r="F7">
-        <v>42.10658785275717</v>
+        <v>53.6377677430311</v>
       </c>
       <c r="I7">
-        <v>28.05906176728543</v>
+        <v>37.5586120739417</v>
       </c>
       <c r="J7">
-        <v>5.799699385767002</v>
+        <v>9.681375497920021</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.698085926460546</v>
+        <v>12.69277310736494</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.59823226397059</v>
+        <v>24.91369552549715</v>
       </c>
       <c r="C8">
-        <v>16.26366528585788</v>
+        <v>12.1850466711856</v>
       </c>
       <c r="D8">
-        <v>2.382303919246138</v>
+        <v>4.051775543144227</v>
       </c>
       <c r="E8">
-        <v>5.577437409697366</v>
+        <v>9.763623568833104</v>
       </c>
       <c r="F8">
-        <v>43.8080080913208</v>
+        <v>53.78383412554831</v>
       </c>
       <c r="I8">
-        <v>28.72805021928573</v>
+        <v>37.56356909335588</v>
       </c>
       <c r="J8">
-        <v>5.737884668152927</v>
+        <v>9.659196644569686</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.919951772101889</v>
+        <v>12.68066210169591</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09932153680309</v>
+        <v>25.60351802926553</v>
       </c>
       <c r="C9">
-        <v>19.08670833936814</v>
+        <v>13.05962207465618</v>
       </c>
       <c r="D9">
-        <v>2.709278770404532</v>
+        <v>4.114613666487101</v>
       </c>
       <c r="E9">
-        <v>5.557298473214345</v>
+        <v>9.743204044116906</v>
       </c>
       <c r="F9">
-        <v>47.33470787472543</v>
+        <v>54.16831647701391</v>
       </c>
       <c r="I9">
-        <v>30.22246082074047</v>
+        <v>37.63357610836263</v>
       </c>
       <c r="J9">
-        <v>5.623641702848648</v>
+        <v>9.620244974427532</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.382502117835614</v>
+        <v>12.67435775374529</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.67751069101802</v>
+        <v>26.1319158658457</v>
       </c>
       <c r="C10">
-        <v>21.00881254312658</v>
+        <v>13.68462226798604</v>
       </c>
       <c r="D10">
-        <v>2.946372056554531</v>
+        <v>4.159034210943943</v>
       </c>
       <c r="E10">
-        <v>5.547458039564583</v>
+        <v>9.730018175672992</v>
       </c>
       <c r="F10">
-        <v>50.04556908685602</v>
+        <v>54.50993715559498</v>
       </c>
       <c r="I10">
-        <v>31.44447491400732</v>
+        <v>37.72200093700684</v>
       </c>
       <c r="J10">
-        <v>5.543461166268669</v>
+        <v>9.594369800315073</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.738947335563584</v>
+        <v>12.6803336106378</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.82683237375623</v>
+        <v>26.37597358210039</v>
       </c>
       <c r="C11">
-        <v>21.85352776940148</v>
+        <v>13.963652488355</v>
       </c>
       <c r="D11">
-        <v>3.054248030225019</v>
+        <v>4.178862930283477</v>
       </c>
       <c r="E11">
-        <v>5.54424033904906</v>
+        <v>9.724411289378757</v>
       </c>
       <c r="F11">
-        <v>51.30721640444301</v>
+        <v>54.67799241578483</v>
       </c>
       <c r="I11">
-        <v>32.03061271270262</v>
+        <v>37.77028858014427</v>
       </c>
       <c r="J11">
-        <v>5.507674727144921</v>
+        <v>9.583188576958653</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.904838296199511</v>
+        <v>12.68534633564191</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.25642484973526</v>
+        <v>26.46883680303266</v>
       </c>
       <c r="C12">
-        <v>22.16945833685801</v>
+        <v>14.06844431505551</v>
       </c>
       <c r="D12">
-        <v>3.095173555133634</v>
+        <v>4.186317023389641</v>
       </c>
       <c r="E12">
-        <v>5.543221891862492</v>
+        <v>9.722344190777225</v>
       </c>
       <c r="F12">
-        <v>51.78939369399731</v>
+        <v>54.74342764874428</v>
       </c>
       <c r="I12">
-        <v>32.25723904514962</v>
+        <v>37.78973349258648</v>
       </c>
       <c r="J12">
-        <v>5.494210518177321</v>
+        <v>9.579038897800887</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.968219122837429</v>
+        <v>12.68757331588326</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.16414895156805</v>
+        <v>26.44881867511249</v>
       </c>
       <c r="C13">
-        <v>22.10158686207671</v>
+        <v>14.04591590541688</v>
       </c>
       <c r="D13">
-        <v>3.086354866357638</v>
+        <v>4.184714083251881</v>
       </c>
       <c r="E13">
-        <v>5.543431994054808</v>
+        <v>9.722786884873518</v>
       </c>
       <c r="F13">
-        <v>51.68534508251616</v>
+        <v>54.72925550072607</v>
       </c>
       <c r="I13">
-        <v>32.20821764360394</v>
+        <v>37.78549412880533</v>
       </c>
       <c r="J13">
-        <v>5.497106592030959</v>
+        <v>9.579928857196968</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.954543436605634</v>
+        <v>12.68707909384386</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.86228595030573</v>
+        <v>26.3836050922645</v>
       </c>
       <c r="C14">
-        <v>21.87959661994514</v>
+        <v>13.9722918259324</v>
       </c>
       <c r="D14">
-        <v>3.05761302706973</v>
+        <v>4.179477278695827</v>
       </c>
       <c r="E14">
-        <v>5.544152419945776</v>
+        <v>9.72424010446902</v>
       </c>
       <c r="F14">
-        <v>51.34679453432558</v>
+        <v>54.68333995098747</v>
       </c>
       <c r="I14">
-        <v>32.04916178923367</v>
+        <v>37.77186509211911</v>
       </c>
       <c r="J14">
-        <v>5.506565339665404</v>
+        <v>9.582845490788698</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.910041239293658</v>
+        <v>12.68552296880117</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.67666366232505</v>
+        <v>26.34371513950159</v>
       </c>
       <c r="C15">
-        <v>21.74311778524653</v>
+        <v>13.9270784293374</v>
       </c>
       <c r="D15">
-        <v>3.040019996085481</v>
+        <v>4.176262466475491</v>
       </c>
       <c r="E15">
-        <v>5.544620377484395</v>
+        <v>9.725137545022919</v>
       </c>
       <c r="F15">
-        <v>51.14000986752985</v>
+        <v>54.65544856359605</v>
       </c>
       <c r="I15">
-        <v>31.95235396974936</v>
+        <v>37.76366788634239</v>
       </c>
       <c r="J15">
-        <v>5.512370101474137</v>
+        <v>9.584642994626581</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.882856407299137</v>
+        <v>12.68461257580518</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.60159264010354</v>
+        <v>26.11603292349072</v>
       </c>
       <c r="C16">
-        <v>20.95303790170188</v>
+        <v>13.66627091675537</v>
       </c>
       <c r="D16">
-        <v>2.939328398276853</v>
+        <v>4.157730726296216</v>
       </c>
       <c r="E16">
-        <v>5.547695198606331</v>
+        <v>9.730392460022181</v>
       </c>
       <c r="F16">
-        <v>49.96371523088147</v>
+        <v>54.49920702922238</v>
       </c>
       <c r="I16">
-        <v>31.40680403843978</v>
+        <v>37.71900749689097</v>
       </c>
       <c r="J16">
-        <v>5.545812779128424</v>
+        <v>9.59511235098781</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.728182977839893</v>
+        <v>12.68005209031207</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.93167305142846</v>
+        <v>25.97724005637663</v>
       </c>
       <c r="C17">
-        <v>20.46096634805426</v>
+        <v>13.50483802759884</v>
       </c>
       <c r="D17">
-        <v>2.877609972807065</v>
+        <v>4.146265047276716</v>
       </c>
       <c r="E17">
-        <v>5.549916344170902</v>
+        <v>9.733716305990074</v>
       </c>
       <c r="F17">
-        <v>49.24957991059065</v>
+        <v>54.40658272081157</v>
       </c>
       <c r="I17">
-        <v>31.0800826610862</v>
+        <v>37.69367523640279</v>
       </c>
       <c r="J17">
-        <v>5.566497177516705</v>
+        <v>9.601685692304565</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.634266943981268</v>
+        <v>12.67784124289586</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.54243025088275</v>
+        <v>25.89776225969459</v>
       </c>
       <c r="C18">
-        <v>20.17512633630892</v>
+        <v>13.41149455387271</v>
       </c>
       <c r="D18">
-        <v>2.842108076022144</v>
+        <v>4.139634686927137</v>
       </c>
       <c r="E18">
-        <v>5.551311040074072</v>
+        <v>9.735664948171026</v>
       </c>
       <c r="F18">
-        <v>48.8414808244293</v>
+        <v>54.35449992927575</v>
       </c>
       <c r="I18">
-        <v>30.89498523312878</v>
+        <v>37.6798637667904</v>
       </c>
       <c r="J18">
-        <v>5.578459832647025</v>
+        <v>9.605522014766109</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.580599049816014</v>
+        <v>12.67678565019492</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.40995665718306</v>
+        <v>25.87091556736409</v>
       </c>
       <c r="C19">
-        <v>20.0778535969957</v>
+        <v>13.37980918282601</v>
       </c>
       <c r="D19">
-        <v>2.830085228766786</v>
+        <v>4.13738365149646</v>
       </c>
       <c r="E19">
-        <v>5.55180285820563</v>
+        <v>9.736331060165524</v>
       </c>
       <c r="F19">
-        <v>48.70375316108601</v>
+        <v>54.33707100681732</v>
       </c>
       <c r="I19">
-        <v>30.83279056961728</v>
+        <v>37.67531777583554</v>
       </c>
       <c r="J19">
-        <v>5.582521769811595</v>
+        <v>9.606830472762583</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.562487653570219</v>
+        <v>12.67646537958958</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.00339096200134</v>
+        <v>25.99197897019615</v>
       </c>
       <c r="C20">
-        <v>20.51363721717365</v>
+        <v>13.52207454336574</v>
       </c>
       <c r="D20">
-        <v>2.884179844151137</v>
+        <v>4.147489274762105</v>
       </c>
       <c r="E20">
-        <v>5.549667648184768</v>
+        <v>9.733358663989586</v>
       </c>
       <c r="F20">
-        <v>49.32532433160293</v>
+        <v>54.41631949744005</v>
       </c>
       <c r="I20">
-        <v>31.11456828264918</v>
+        <v>37.69629334380543</v>
       </c>
       <c r="J20">
-        <v>5.5642885849844</v>
+        <v>9.600980206440536</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.644228101644435</v>
+        <v>12.67805424099423</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.95110032036087</v>
+        <v>26.402748541621</v>
       </c>
       <c r="C21">
-        <v>21.94490480286353</v>
+        <v>13.99394146899006</v>
       </c>
       <c r="D21">
-        <v>3.066052515914351</v>
+        <v>4.181016938938222</v>
       </c>
       <c r="E21">
-        <v>5.54393521493608</v>
+        <v>9.723811737319103</v>
       </c>
       <c r="F21">
-        <v>51.44611187341312</v>
+        <v>54.69677790434425</v>
       </c>
       <c r="I21">
-        <v>32.09575080229929</v>
+        <v>37.77583680956084</v>
       </c>
       <c r="J21">
-        <v>5.503784805343215</v>
+        <v>9.581986516905916</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.923097120580186</v>
+        <v>12.68597112773575</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.19142057390555</v>
+        <v>26.67375777348134</v>
       </c>
       <c r="C22">
-        <v>22.85751282279357</v>
+        <v>14.29721364333667</v>
       </c>
       <c r="D22">
-        <v>3.18539927116335</v>
+        <v>4.202610782909639</v>
       </c>
       <c r="E22">
-        <v>5.541366274917757</v>
+        <v>9.717899225924919</v>
       </c>
       <c r="F22">
-        <v>52.85817400268446</v>
+        <v>54.89053159704223</v>
       </c>
       <c r="I22">
-        <v>32.76441618629309</v>
+        <v>37.83458029917207</v>
       </c>
       <c r="J22">
-        <v>5.464744718661458</v>
+        <v>9.57006486645065</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.108648173391529</v>
+        <v>12.69306093623591</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.5322978306498</v>
+        <v>26.52891030994232</v>
       </c>
       <c r="C23">
-        <v>22.37240487260699</v>
+        <v>14.13585399160777</v>
       </c>
       <c r="D23">
-        <v>3.121629932349984</v>
+        <v>4.191114945756697</v>
       </c>
       <c r="E23">
-        <v>5.54262233961917</v>
+        <v>9.721024986340742</v>
       </c>
       <c r="F23">
-        <v>52.10200797534318</v>
+        <v>54.78617297665271</v>
       </c>
       <c r="I23">
-        <v>32.40490755524517</v>
+        <v>37.80260979872451</v>
       </c>
       <c r="J23">
-        <v>5.485539371180404</v>
+        <v>9.576382793757871</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.009303311309335</v>
+        <v>12.68910211313433</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.97098008004126</v>
+        <v>25.98531451621679</v>
       </c>
       <c r="C24">
-        <v>20.48983390294638</v>
+        <v>13.51428356797193</v>
       </c>
       <c r="D24">
-        <v>2.881209670223552</v>
+        <v>4.146935921695703</v>
       </c>
       <c r="E24">
-        <v>5.549779718316369</v>
+        <v>9.733520236438515</v>
       </c>
       <c r="F24">
-        <v>49.29107261814458</v>
+        <v>54.4119138604892</v>
       </c>
       <c r="I24">
-        <v>31.09896882509063</v>
+        <v>37.69510735395497</v>
       </c>
       <c r="J24">
-        <v>5.565286867915216</v>
+        <v>9.601298978341635</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.639723649405513</v>
+        <v>12.67795727338164</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17840243567272</v>
+        <v>25.41277102371339</v>
       </c>
       <c r="C25">
-        <v>18.35068954599041</v>
+        <v>12.82556824623507</v>
       </c>
       <c r="D25">
-        <v>2.621575542262554</v>
+        <v>4.097920975809591</v>
       </c>
       <c r="E25">
-        <v>5.56193008588296</v>
+        <v>9.748408170706938</v>
       </c>
       <c r="F25">
-        <v>46.36011471863748</v>
+        <v>54.05385976446701</v>
       </c>
       <c r="I25">
-        <v>29.79738938626647</v>
+        <v>37.60815429206531</v>
       </c>
       <c r="J25">
-        <v>5.653849271610953</v>
+        <v>9.63029895415117</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.254465916164557</v>
+        <v>12.6741977592793</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_220/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_220/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.00614441910898</v>
+        <v>24.09918780225171</v>
       </c>
       <c r="C2">
-        <v>12.30731053561313</v>
+        <v>16.67232712170282</v>
       </c>
       <c r="D2">
-        <v>4.060659819108497</v>
+        <v>2.428047114336528</v>
       </c>
       <c r="E2">
-        <v>9.760591166727075</v>
+        <v>5.574136560256618</v>
       </c>
       <c r="F2">
-        <v>53.8300619044932</v>
+        <v>44.28186480403232</v>
       </c>
       <c r="I2">
-        <v>37.5689805815659</v>
+        <v>28.92122407905285</v>
       </c>
       <c r="J2">
-        <v>9.653495557233981</v>
+        <v>5.721624928604727</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.67856184045885</v>
+        <v>7.981942807984376</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.74140692267896</v>
+        <v>22.62811943798597</v>
       </c>
       <c r="C3">
-        <v>11.95175431647375</v>
+        <v>15.46636353148331</v>
       </c>
       <c r="D3">
-        <v>4.034675934778845</v>
+        <v>2.29464233321055</v>
       </c>
       <c r="E3">
-        <v>9.769613835736275</v>
+        <v>5.584229686087474</v>
       </c>
       <c r="F3">
-        <v>53.70344327964792</v>
+        <v>42.92196131500751</v>
       </c>
       <c r="I3">
-        <v>37.55785225907291</v>
+        <v>28.37449790402193</v>
       </c>
       <c r="J3">
-        <v>9.670375217775872</v>
+        <v>5.769323818297549</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.68597716097457</v>
+        <v>7.804248612819334</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.58469654994497</v>
+        <v>21.69520152138028</v>
       </c>
       <c r="C4">
-        <v>11.73228476847314</v>
+        <v>14.69099068347034</v>
       </c>
       <c r="D4">
-        <v>4.018360675747212</v>
+        <v>2.211433684890768</v>
       </c>
       <c r="E4">
-        <v>9.775533184945582</v>
+        <v>5.591267667234401</v>
       </c>
       <c r="F4">
-        <v>53.63809740843654</v>
+        <v>42.11098743608559</v>
       </c>
       <c r="I4">
-        <v>37.5585900983377</v>
+        <v>28.06073559280061</v>
       </c>
       <c r="J4">
-        <v>9.68131401363596</v>
+        <v>5.799531135506716</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.69273076665195</v>
+        <v>7.698657786849875</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.52237692755122</v>
+        <v>21.30779711234437</v>
       </c>
       <c r="C5">
-        <v>11.64271556975237</v>
+        <v>14.36610426747673</v>
       </c>
       <c r="D5">
-        <v>4.01162133703517</v>
+        <v>2.177178190824794</v>
       </c>
       <c r="E5">
-        <v>9.778040985024994</v>
+        <v>5.59433971293143</v>
       </c>
       <c r="F5">
-        <v>53.61459065031933</v>
+        <v>41.78659556275252</v>
       </c>
       <c r="I5">
-        <v>37.56078876182038</v>
+        <v>27.93820527929104</v>
       </c>
       <c r="J5">
-        <v>9.685916554616913</v>
+        <v>5.812078784393102</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.69603650654158</v>
+        <v>7.656525504820759</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.51212394373675</v>
+        <v>21.24304058080047</v>
       </c>
       <c r="C6">
-        <v>11.62783935030672</v>
+        <v>14.31161504072802</v>
       </c>
       <c r="D6">
-        <v>4.010496795684248</v>
+        <v>2.1714686141913</v>
       </c>
       <c r="E6">
-        <v>9.778463184749697</v>
+        <v>5.594861946493412</v>
       </c>
       <c r="F6">
-        <v>53.61087601526222</v>
+        <v>41.73309988339358</v>
       </c>
       <c r="I6">
-        <v>37.56126829473169</v>
+        <v>27.91817575458679</v>
       </c>
       <c r="J6">
-        <v>9.686689566000677</v>
+        <v>5.814176865792082</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.69661886155771</v>
+        <v>7.649584048042716</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.58384975218972</v>
+        <v>21.69000576452648</v>
       </c>
       <c r="C7">
-        <v>11.73107713427289</v>
+        <v>14.6866454172649</v>
       </c>
       <c r="D7">
-        <v>4.018270153979175</v>
+        <v>2.210973133023665</v>
       </c>
       <c r="E7">
-        <v>9.775566618563666</v>
+        <v>5.591308280993217</v>
       </c>
       <c r="F7">
-        <v>53.6377677430311</v>
+        <v>42.10658785275718</v>
       </c>
       <c r="I7">
-        <v>37.5586120739417</v>
+        <v>28.05906176728555</v>
       </c>
       <c r="J7">
-        <v>9.681375497920021</v>
+        <v>5.799699385767069</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.69277310736494</v>
+        <v>7.69808592646045</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.91369552549715</v>
+        <v>23.5982322639706</v>
       </c>
       <c r="C8">
-        <v>12.1850466711856</v>
+        <v>16.26366528585778</v>
       </c>
       <c r="D8">
-        <v>4.051775543144227</v>
+        <v>2.382303919246034</v>
       </c>
       <c r="E8">
-        <v>9.763623568833104</v>
+        <v>5.577437409697366</v>
       </c>
       <c r="F8">
-        <v>53.78383412554831</v>
+        <v>43.80800809132081</v>
       </c>
       <c r="I8">
-        <v>37.56356909335588</v>
+        <v>28.72805021928571</v>
       </c>
       <c r="J8">
-        <v>9.659196644569686</v>
+        <v>5.737884668152959</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.68066210169591</v>
+        <v>7.919951772101965</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.60351802926553</v>
+        <v>27.0993215368031</v>
       </c>
       <c r="C9">
-        <v>13.05962207465618</v>
+        <v>19.086708339368</v>
       </c>
       <c r="D9">
-        <v>4.114613666487101</v>
+        <v>2.709278770404406</v>
       </c>
       <c r="E9">
-        <v>9.743204044116906</v>
+        <v>5.557298473214221</v>
       </c>
       <c r="F9">
-        <v>54.16831647701391</v>
+        <v>47.33470787472538</v>
       </c>
       <c r="I9">
-        <v>37.63357610836263</v>
+        <v>30.22246082074038</v>
       </c>
       <c r="J9">
-        <v>9.620244974427532</v>
+        <v>5.623641702848587</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.67435775374529</v>
+        <v>8.382502117835603</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.1319158658457</v>
+        <v>29.67751069101806</v>
       </c>
       <c r="C10">
-        <v>13.68462226798604</v>
+        <v>21.00881254312675</v>
       </c>
       <c r="D10">
-        <v>4.159034210943943</v>
+        <v>2.94637205655468</v>
       </c>
       <c r="E10">
-        <v>9.730018175672992</v>
+        <v>5.54745803956465</v>
       </c>
       <c r="F10">
-        <v>54.50993715559498</v>
+        <v>50.04556908685613</v>
       </c>
       <c r="I10">
-        <v>37.72200093700684</v>
+        <v>31.44447491400737</v>
       </c>
       <c r="J10">
-        <v>9.594369800315073</v>
+        <v>5.543461166268683</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.6803336106378</v>
+        <v>8.738947335563534</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.37597358210039</v>
+        <v>30.82683237375621</v>
       </c>
       <c r="C11">
-        <v>13.963652488355</v>
+        <v>21.8535277694014</v>
       </c>
       <c r="D11">
-        <v>4.178862930283477</v>
+        <v>3.05424803022513</v>
       </c>
       <c r="E11">
-        <v>9.724411289378757</v>
+        <v>5.54424033904913</v>
       </c>
       <c r="F11">
-        <v>54.67799241578483</v>
+        <v>51.30721640444315</v>
       </c>
       <c r="I11">
-        <v>37.77028858014427</v>
+        <v>32.03061271270271</v>
       </c>
       <c r="J11">
-        <v>9.583188576958653</v>
+        <v>5.507674727144927</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.68534633564191</v>
+        <v>8.904838296199582</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.46883680303266</v>
+        <v>31.25642484973544</v>
       </c>
       <c r="C12">
-        <v>14.06844431505551</v>
+        <v>22.16945833685819</v>
       </c>
       <c r="D12">
-        <v>4.186317023389641</v>
+        <v>3.095173555133828</v>
       </c>
       <c r="E12">
-        <v>9.722344190777225</v>
+        <v>5.543221891862561</v>
       </c>
       <c r="F12">
-        <v>54.74342764874428</v>
+        <v>51.78939369399737</v>
       </c>
       <c r="I12">
-        <v>37.78973349258648</v>
+        <v>32.2572390451496</v>
       </c>
       <c r="J12">
-        <v>9.579038897800887</v>
+        <v>5.494210518177336</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.68757331588326</v>
+        <v>8.968219122837414</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.44881867511249</v>
+        <v>31.16414895156798</v>
       </c>
       <c r="C13">
-        <v>14.04591590541688</v>
+        <v>22.10158686207671</v>
       </c>
       <c r="D13">
-        <v>4.184714083251881</v>
+        <v>3.086354866357592</v>
       </c>
       <c r="E13">
-        <v>9.722786884873518</v>
+        <v>5.543431994054676</v>
       </c>
       <c r="F13">
-        <v>54.72925550072607</v>
+        <v>51.68534508251616</v>
       </c>
       <c r="I13">
-        <v>37.78549412880533</v>
+        <v>32.20821764360396</v>
       </c>
       <c r="J13">
-        <v>9.579928857196968</v>
+        <v>5.497106592030897</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.68707909384386</v>
+        <v>8.954543436605606</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.3836050922645</v>
+        <v>30.8622859503058</v>
       </c>
       <c r="C14">
-        <v>13.9722918259324</v>
+        <v>21.87959661994545</v>
       </c>
       <c r="D14">
-        <v>4.179477278695827</v>
+        <v>3.057613027069815</v>
       </c>
       <c r="E14">
-        <v>9.72424010446902</v>
+        <v>5.544152419945775</v>
       </c>
       <c r="F14">
-        <v>54.68333995098747</v>
+        <v>51.34679453432575</v>
       </c>
       <c r="I14">
-        <v>37.77186509211911</v>
+        <v>32.04916178923374</v>
       </c>
       <c r="J14">
-        <v>9.582845490788698</v>
+        <v>5.506565339665347</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.68552296880117</v>
+        <v>8.910041239293571</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.34371513950159</v>
+        <v>30.67666366232502</v>
       </c>
       <c r="C15">
-        <v>13.9270784293374</v>
+        <v>21.74311778524636</v>
       </c>
       <c r="D15">
-        <v>4.176262466475491</v>
+        <v>3.040019996085222</v>
       </c>
       <c r="E15">
-        <v>9.725137545022919</v>
+        <v>5.544620377484332</v>
       </c>
       <c r="F15">
-        <v>54.65544856359605</v>
+        <v>51.14000986752985</v>
       </c>
       <c r="I15">
-        <v>37.76366788634239</v>
+        <v>31.95235396974939</v>
       </c>
       <c r="J15">
-        <v>9.584642994626581</v>
+        <v>5.512370101474098</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.68461257580518</v>
+        <v>8.88285640729914</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.11603292349072</v>
+        <v>29.6015926401036</v>
       </c>
       <c r="C16">
-        <v>13.66627091675537</v>
+        <v>20.95303790170183</v>
       </c>
       <c r="D16">
-        <v>4.157730726296216</v>
+        <v>2.939328398277039</v>
       </c>
       <c r="E16">
-        <v>9.730392460022181</v>
+        <v>5.547695198606397</v>
       </c>
       <c r="F16">
-        <v>54.49920702922238</v>
+        <v>49.96371523088145</v>
       </c>
       <c r="I16">
-        <v>37.71900749689097</v>
+        <v>31.40680403843979</v>
       </c>
       <c r="J16">
-        <v>9.59511235098781</v>
+        <v>5.545812779128493</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.68005209031207</v>
+        <v>8.728182977839882</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.97724005637663</v>
+        <v>28.93167305142851</v>
       </c>
       <c r="C17">
-        <v>13.50483802759884</v>
+        <v>20.46096634805431</v>
       </c>
       <c r="D17">
-        <v>4.146265047276716</v>
+        <v>2.877609972806972</v>
       </c>
       <c r="E17">
-        <v>9.733716305990074</v>
+        <v>5.549916344170835</v>
       </c>
       <c r="F17">
-        <v>54.40658272081157</v>
+        <v>49.24957991059058</v>
       </c>
       <c r="I17">
-        <v>37.69367523640279</v>
+        <v>31.08008266108612</v>
       </c>
       <c r="J17">
-        <v>9.601685692304565</v>
+        <v>5.566497177516768</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.67784124289586</v>
+        <v>8.634266943981261</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89776225969459</v>
+        <v>28.5424302508827</v>
       </c>
       <c r="C18">
-        <v>13.41149455387271</v>
+        <v>20.17512633630893</v>
       </c>
       <c r="D18">
-        <v>4.139634686927137</v>
+        <v>2.842108076022107</v>
       </c>
       <c r="E18">
-        <v>9.735664948171026</v>
+        <v>5.55131104007394</v>
       </c>
       <c r="F18">
-        <v>54.35449992927575</v>
+        <v>48.84148082442938</v>
       </c>
       <c r="I18">
-        <v>37.6798637667904</v>
+        <v>30.89498523312885</v>
       </c>
       <c r="J18">
-        <v>9.605522014766109</v>
+        <v>5.578459832647</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.67678565019492</v>
+        <v>8.580599049815984</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.87091556736409</v>
+        <v>28.40995665718303</v>
       </c>
       <c r="C19">
-        <v>13.37980918282601</v>
+        <v>20.07785359699559</v>
       </c>
       <c r="D19">
-        <v>4.13738365149646</v>
+        <v>2.830085228766554</v>
       </c>
       <c r="E19">
-        <v>9.736331060165524</v>
+        <v>5.551802858205497</v>
       </c>
       <c r="F19">
-        <v>54.33707100681732</v>
+        <v>48.70375316108632</v>
       </c>
       <c r="I19">
-        <v>37.67531777583554</v>
+        <v>30.83279056961756</v>
       </c>
       <c r="J19">
-        <v>9.606830472762583</v>
+        <v>5.582521769811632</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.67646537958958</v>
+        <v>8.562487653570198</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.99197897019615</v>
+        <v>29.00339096200141</v>
       </c>
       <c r="C20">
-        <v>13.52207454336574</v>
+        <v>20.51363721717381</v>
       </c>
       <c r="D20">
-        <v>4.147489274762105</v>
+        <v>2.88417984415121</v>
       </c>
       <c r="E20">
-        <v>9.733358663989586</v>
+        <v>5.549667648184768</v>
       </c>
       <c r="F20">
-        <v>54.41631949744005</v>
+        <v>49.32532433160289</v>
       </c>
       <c r="I20">
-        <v>37.69629334380543</v>
+        <v>31.11456828264912</v>
       </c>
       <c r="J20">
-        <v>9.600980206440536</v>
+        <v>5.564288584984403</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.67805424099423</v>
+        <v>8.644228101644391</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.402748541621</v>
+        <v>30.95110032036081</v>
       </c>
       <c r="C21">
-        <v>13.99394146899006</v>
+        <v>21.94490480286347</v>
       </c>
       <c r="D21">
-        <v>4.181016938938222</v>
+        <v>3.066052515914165</v>
       </c>
       <c r="E21">
-        <v>9.723811737319103</v>
+        <v>5.543935214936148</v>
       </c>
       <c r="F21">
-        <v>54.69677790434425</v>
+        <v>51.44611187341324</v>
       </c>
       <c r="I21">
-        <v>37.77583680956084</v>
+        <v>32.09575080229941</v>
       </c>
       <c r="J21">
-        <v>9.581986516905916</v>
+        <v>5.503784805343336</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.68597112773575</v>
+        <v>8.923097120580199</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.67375777348134</v>
+        <v>32.19142057390552</v>
       </c>
       <c r="C22">
-        <v>14.29721364333667</v>
+        <v>22.8575128227935</v>
       </c>
       <c r="D22">
-        <v>4.202610782909639</v>
+        <v>3.185399271163257</v>
       </c>
       <c r="E22">
-        <v>9.717899225924919</v>
+        <v>5.541366274917692</v>
       </c>
       <c r="F22">
-        <v>54.89053159704223</v>
+        <v>52.8581740026845</v>
       </c>
       <c r="I22">
-        <v>37.83458029917207</v>
+        <v>32.76441618629313</v>
       </c>
       <c r="J22">
-        <v>9.57006486645065</v>
+        <v>5.464744718661499</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.69306093623591</v>
+        <v>9.108648173391527</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.52891030994232</v>
+        <v>31.53229783064976</v>
       </c>
       <c r="C23">
-        <v>14.13585399160777</v>
+        <v>22.37240487260685</v>
       </c>
       <c r="D23">
-        <v>4.191114945756697</v>
+        <v>3.121629932349696</v>
       </c>
       <c r="E23">
-        <v>9.721024986340742</v>
+        <v>5.54262233961904</v>
       </c>
       <c r="F23">
-        <v>54.78617297665271</v>
+        <v>52.10200797534343</v>
       </c>
       <c r="I23">
-        <v>37.80260979872451</v>
+        <v>32.40490755524538</v>
       </c>
       <c r="J23">
-        <v>9.576382793757871</v>
+        <v>5.485539371180439</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.68910211313433</v>
+        <v>9.00930331130934</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.98531451621679</v>
+        <v>28.97098008004126</v>
       </c>
       <c r="C24">
-        <v>13.51428356797193</v>
+        <v>20.4898339029464</v>
       </c>
       <c r="D24">
-        <v>4.146935921695703</v>
+        <v>2.881209670223553</v>
       </c>
       <c r="E24">
-        <v>9.733520236438515</v>
+        <v>5.549779718316437</v>
       </c>
       <c r="F24">
-        <v>54.4119138604892</v>
+        <v>49.29107261814457</v>
       </c>
       <c r="I24">
-        <v>37.69510735395497</v>
+        <v>31.0989688250906</v>
       </c>
       <c r="J24">
-        <v>9.601298978341635</v>
+        <v>5.56528686791528</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.67795727338164</v>
+        <v>8.639723649405564</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.41277102371339</v>
+        <v>26.17840243567271</v>
       </c>
       <c r="C25">
-        <v>12.82556824623507</v>
+        <v>18.35068954599046</v>
       </c>
       <c r="D25">
-        <v>4.097920975809591</v>
+        <v>2.621575542262339</v>
       </c>
       <c r="E25">
-        <v>9.748408170706938</v>
+        <v>5.561930085882826</v>
       </c>
       <c r="F25">
-        <v>54.05385976446701</v>
+        <v>46.36011471863753</v>
       </c>
       <c r="I25">
-        <v>37.60815429206531</v>
+        <v>29.79738938626658</v>
       </c>
       <c r="J25">
-        <v>9.63029895415117</v>
+        <v>5.653849271610989</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.6741977592793</v>
+        <v>8.254465916164447</v>
       </c>
       <c r="M25">
         <v>0</v>
